--- a/spliced/walkingToRunning/2023-03-26_17-10-55/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-10-55/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,286 @@
         <v>-2.144093431924546</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.787195682525635</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.478515625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.063291549682615</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-2.838432111238169</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4.14933462754678</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.666932080921356</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-10.50285053253174</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-24.10493659973145</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-11.3930606842041</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.300542519280826</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.241362005864094</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.135142751430305</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.336788654327393</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.028789520263672</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-11.69052314758301</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.90287771350459</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.77420247228532</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.556544103120493</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-33.8237419128418</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-34.27063751220703</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-13.57823276519775</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1651651027956011</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.663977503776609</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-2.861205784898042</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.554568767547607</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-39.26761627197266</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.68596649169922</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.837720880383007</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-7.873765813676991</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-5.242947754107039</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.776285171508789</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.06696891784668</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.473462343215942</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8822141462250848</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.9568282867732949</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.844946472268377</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.451385021209717</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-37.8787841796875</v>
+      </c>
+      <c r="E28" t="n">
+        <v>33.21585845947266</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-2.166194288354044</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3768198490145664</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.521733685543742</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-25.62279510498047</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.356860160827637</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-15.05502891540527</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-9.005332197798026</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-16.56740246321032</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.677433475067815</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.065028190612793</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.866869926452637</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-9.438656806945801</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6589992062041609</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-9.836473477514197</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.410142396625722</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>26.9844970703125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-14.56967449188232</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10.2812442779541</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.44424632505363</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-3.936239650375036</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.583756440172107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
